--- a/app/Template/Template_Employee_AppForm.xlsx
+++ b/app/Template/Template_Employee_AppForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Flask\hrci_back\app\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D332D7-6A1B-449C-B9F6-A2A9AF17FEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA193E-54A5-416E-852F-92F0D0EE3876}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4324A115-4F23-41F5-B4C0-2AD484059444}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4324A115-4F23-41F5-B4C0-2AD484059444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
-  <si>
-    <t>อายุ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ชื่อ</t>
   </si>
@@ -43,6 +40,33 @@
   </si>
   <si>
     <t xml:space="preserve">ชื่อเล่น </t>
+  </si>
+  <si>
+    <t>รหัสบัตรประชาชน</t>
+  </si>
+  <si>
+    <t>ระดับการศึกษา</t>
+  </si>
+  <si>
+    <t>สถานการศึกษา</t>
+  </si>
+  <si>
+    <t>ปีที่เริ่ม</t>
+  </si>
+  <si>
+    <t>ปีที่จบ</t>
+  </si>
+  <si>
+    <t>วุฒิที่ได้รับ</t>
+  </si>
+  <si>
+    <t>สาขาวิชาเอก</t>
+  </si>
+  <si>
+    <t>เกรดเฉลี่ย</t>
+  </si>
+  <si>
+    <t>กิจกรรม</t>
   </si>
 </sst>
 </file>
@@ -89,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -105,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -401,29 +425,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046D8EA5-AE8B-4C92-A155-440D99D7B523}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
